--- a/biology/Médecine/Projet_Vaccins_Méningite/Projet_Vaccins_Méningite.xlsx
+++ b/biology/Médecine/Projet_Vaccins_Méningite/Projet_Vaccins_Méningite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Projet_Vaccins_M%C3%A9ningite</t>
+          <t>Projet_Vaccins_Méningite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Projet Vaccins Méningite (mieux connu sous le nom de MVP pour Meningitis Vaccine Project) est né d'une initiative de l'Organisation mondiale de la Santé (OMS) qui, à la suite de l'épidémie dévastatrice de 1996-1997 en Afrique, a décidé de mettre tout en œuvre pour développer et introduire des vaccins conjugués capables de combattre et éliminer les épidémies de méningite à méningocoques en Afrique sub-saharienne.
 En 2001, la Fondation Bill-et-Melinda-Gates octroyait 70 millions USD à l'organisation non gouvernementale PATH
-et à l'OMS pour la création du Projet Vaccins Méningite/Meningitis Vaccine Project (MVP)[1].
+et à l'OMS pour la création du Projet Vaccins Méningite/Meningitis Vaccine Project (MVP).
 La mission du MVP est d’éliminer les épidémies de méningite en tant que problème de santé publique en Afrique sub-saharienne par le développement, la mise au point, l’introduction et l’utilisation à grande échelle de vaccins conjugués contre les méningocoques.
 </t>
         </is>
